--- a/phase2/rcp_phase234_planning.xlsx
+++ b/phase2/rcp_phase234_planning.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_ABD54537D591F23CFB38BBBFA582FDB65B3BD6ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38A9975-AA47-4A67-BA13-04B379D7138D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1FA68-6FC2-3D4E-B1B1-6D3D823E0549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL256IP" sheetId="2" r:id="rId1"/>
     <sheet name="PlanningOld" sheetId="3" r:id="rId2"/>
-    <sheet name="PlanningNew" sheetId="6" r:id="rId3"/>
+    <sheet name="PlanningNew" sheetId="7" r:id="rId3"/>
+    <sheet name="PlanningNewV2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="123">
   <si>
     <t>/24</t>
   </si>
@@ -201,9 +202,6 @@
     <t>Populated</t>
   </si>
   <si>
-    <t>LAN Servers</t>
-  </si>
-  <si>
     <t>LAN A</t>
   </si>
   <si>
@@ -235,6 +233,167 @@
   </si>
   <si>
     <t>LAN Transit D</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Laptop0</t>
+  </si>
+  <si>
+    <t>PC-PT</t>
+  </si>
+  <si>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>Laptop-PT</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>Laptop1</t>
+  </si>
+  <si>
+    <t>Router-PT</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Server-PT</t>
+  </si>
+  <si>
+    <t>DHCP Server</t>
+  </si>
+  <si>
+    <t>DNS Server</t>
+  </si>
+  <si>
+    <t>HTTP Server</t>
+  </si>
+  <si>
+    <t>192.168.7.6</t>
+  </si>
+  <si>
+    <t>LAN Server</t>
+  </si>
+  <si>
+    <t>192.168.7.66</t>
+  </si>
+  <si>
+    <t>192.168.7.34</t>
+  </si>
+  <si>
+    <t>192.168.7.130</t>
+  </si>
+  <si>
+    <t>192.168.7.131</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>Subnet
+visual
+portrayal</t>
+  </si>
+  <si>
+    <t>Router-PT - Fa0/0</t>
+  </si>
+  <si>
+    <t>Router-PT - Fa1/0</t>
+  </si>
+  <si>
+    <t>PC-PT - Fa0</t>
+  </si>
+  <si>
+    <t>Laptop-PT - Fa0</t>
+  </si>
+  <si>
+    <t>Server-PT - Fa0</t>
+  </si>
+  <si>
+    <t>Sw0</t>
+  </si>
+  <si>
+    <t>Sw1</t>
+  </si>
+  <si>
+    <t>2960-24TT - Fa0/1</t>
+  </si>
+  <si>
+    <t>2960-24TT - Fa0/2</t>
+  </si>
+  <si>
+    <t>2960-24TT - Fa0/3</t>
+  </si>
+  <si>
+    <t>LAN A - R1</t>
+  </si>
+  <si>
+    <t>LAN A - PC0</t>
+  </si>
+  <si>
+    <t>LAN A - Laptop0</t>
+  </si>
+  <si>
+    <t>LAN B - R1</t>
+  </si>
+  <si>
+    <t>LAN B - PC1</t>
+  </si>
+  <si>
+    <t>LAN B - Laptop1</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Router-PT - Fa5/0</t>
+  </si>
+  <si>
+    <t>Router-PT - Fa4/0</t>
+  </si>
+  <si>
+    <t>Sw2</t>
+  </si>
+  <si>
+    <t>2960-24TT - Fa0/4</t>
+  </si>
+  <si>
+    <t>LAN Server - DHCP</t>
+  </si>
+  <si>
+    <t>LAN Server - DNS</t>
+  </si>
+  <si>
+    <t>LAN Server - HTTP</t>
+  </si>
+  <si>
+    <t>LAN Server - R2</t>
   </si>
 </sst>
 </file>
@@ -468,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,82 +663,96 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,26 +764,30 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,13 +1080,13 @@
       <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="259" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="259" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:259" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:259" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>0</v>
       </c>
@@ -1679,7 +1856,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +2119,7 @@
       <c r="IX4" s="4"/>
       <c r="IY4" s="5"/>
     </row>
-    <row r="5" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2382,7 @@
       <c r="IX5" s="7"/>
       <c r="IY5" s="8"/>
     </row>
-    <row r="6" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2645,7 @@
       <c r="IX6" s="10"/>
       <c r="IY6" s="11"/>
     </row>
-    <row r="7" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2731,7 +2908,7 @@
       <c r="IX7" s="13"/>
       <c r="IY7" s="14"/>
     </row>
-    <row r="8" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2994,7 +3171,7 @@
       <c r="IX8" s="16"/>
       <c r="IY8" s="17"/>
     </row>
-    <row r="9" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3257,7 +3434,7 @@
       <c r="IX9" s="19"/>
       <c r="IY9" s="20"/>
     </row>
-    <row r="10" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3697,7 @@
       <c r="IX10" s="22"/>
       <c r="IY10" s="23"/>
     </row>
-    <row r="11" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3960,7 @@
       <c r="IX11" s="24"/>
       <c r="IY11" s="25"/>
     </row>
-    <row r="12" spans="1:259" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:259" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4046,7 +4223,7 @@
       <c r="IX12" s="2"/>
       <c r="IY12" s="2"/>
     </row>
-    <row r="13" spans="1:259" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:259" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4060,36 +4237,36 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" customWidth="1"/>
-    <col min="18" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="16" width="3.6640625" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" customWidth="1"/>
+    <col min="18" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+    </row>
+    <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>55</v>
       </c>
@@ -4160,7 +4337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
@@ -4204,7 +4381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
@@ -4248,7 +4425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -4292,7 +4469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
@@ -4333,7 +4510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
@@ -4365,7 +4542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>6</v>
       </c>
@@ -4395,7 +4572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>6</v>
       </c>
@@ -4423,7 +4600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:P2"/>
@@ -4433,800 +4610,2384 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A19DE15-A1B4-4592-9514-25A784733BD2}">
-  <dimension ref="B2:AR19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DCDA67-E258-6543-9380-55E0CAA3C32A}">
+  <dimension ref="B2:AS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" customWidth="1"/>
     <col min="4" max="19" width="4" customWidth="1"/>
-    <col min="20" max="20" width="2.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.1640625" customWidth="1"/>
+    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="34"/>
-    </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="55"/>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="46" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="V3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="46" t="s">
+      <c r="W3" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="46" t="s">
+      <c r="Y3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AA3" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AC3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AD3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="34"/>
-    </row>
-    <row r="4" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="55">
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="55"/>
+    </row>
+    <row r="4" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="40">
         <v>3</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="40">
         <v>4</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="40">
         <v>7</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="40">
         <v>8</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="40">
         <v>11</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="36">
         <v>12</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="36">
         <v>15</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="36">
         <v>16</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="36">
         <v>31</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="39">
         <v>32</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="39">
         <v>63</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="38">
         <v>64</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q4" s="38">
         <v>127</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="37">
         <v>128</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="37">
         <v>255</v>
       </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-    </row>
-    <row r="5" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="T4" s="30"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+    </row>
+    <row r="5" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="38" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>128</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>126</v>
+      </c>
+      <c r="AD5" s="42">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="38" t="s">
+      <c r="V6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" s="42">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="42">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="42">
+        <v>14</v>
+      </c>
+      <c r="AD8" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B13" s="53"/>
+      <c r="D13" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="51"/>
+      <c r="L13" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B14" s="44"/>
+      <c r="D14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="U14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z14" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" s="41"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B15" s="44"/>
+      <c r="D15" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="U15" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B16" s="44"/>
+      <c r="D16" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="U16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y16" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B17" s="44"/>
+      <c r="D17" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="U17" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B18" s="44"/>
+      <c r="D18" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="U18" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y18" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B19" s="44"/>
+      <c r="D19" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="U19" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W19" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="X19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U20" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="V20" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="X20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y20" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U21" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="V21" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="X21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="V22" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W22" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="X22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U23" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="V23" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W23" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U24" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="V24" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W24" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U25" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="V25" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W25" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U26" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="V26" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W26" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U27" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="V27" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W27" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="X27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U28" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="V28" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="W28" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="X28" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="38" t="s">
+      <c r="Y28" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z28" t="s">
         <v>10</v>
       </c>
-      <c r="Z5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>128</v>
-      </c>
-      <c r="AB5" s="38">
-        <v>126</v>
-      </c>
-      <c r="AC5" s="38">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>64</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="38">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="38">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="38">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="X8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y8" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="38">
-        <v>16</v>
-      </c>
-      <c r="AB8" s="38">
-        <v>14</v>
-      </c>
-      <c r="AC8" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="V9" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA9" s="38">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="38">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="W10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="X10" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA10" s="38">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="38">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="V11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="W11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA11" s="38">
-        <v>4</v>
-      </c>
-      <c r="AB11" s="38">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="W12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="38">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="D13" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="60"/>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="D14" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="D15" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="D16" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="D17" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="D18" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="D19" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U29" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="V29" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="X29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y29" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="U30" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="V30" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="X30" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y30" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L13:M15"/>
+  <mergeCells count="42">
+    <mergeCell ref="D19:S19"/>
     <mergeCell ref="N13:O16"/>
     <mergeCell ref="P13:Q17"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="R13:S18"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="R13:S18"/>
+    <mergeCell ref="L13:M15"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:S3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AE2:AE3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A19DE15-A1B4-4592-9514-25A784733BD2}">
+  <dimension ref="A1:AK30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="2.1640625" customWidth="1"/>
+    <col min="4" max="19" width="4" customWidth="1"/>
+    <col min="20" max="20" width="2.1640625" customWidth="1"/>
+    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.6640625" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+      <c r="D1"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AK1" s="31"/>
+    </row>
+    <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="U2" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="46"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="40">
+        <v>0</v>
+      </c>
+      <c r="E3" s="40">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40">
+        <v>4</v>
+      </c>
+      <c r="G3" s="40">
+        <v>7</v>
+      </c>
+      <c r="H3" s="40">
+        <v>8</v>
+      </c>
+      <c r="I3" s="40">
+        <v>11</v>
+      </c>
+      <c r="J3" s="36">
+        <v>12</v>
+      </c>
+      <c r="K3" s="36">
+        <v>15</v>
+      </c>
+      <c r="L3" s="36">
+        <v>16</v>
+      </c>
+      <c r="M3" s="36">
+        <v>31</v>
+      </c>
+      <c r="N3" s="39">
+        <v>32</v>
+      </c>
+      <c r="O3" s="39">
+        <v>63</v>
+      </c>
+      <c r="P3" s="38">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>127</v>
+      </c>
+      <c r="R3" s="37">
+        <v>128</v>
+      </c>
+      <c r="S3" s="37">
+        <v>255</v>
+      </c>
+      <c r="T3" s="30"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+    </row>
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="42">
+        <v>128</v>
+      </c>
+      <c r="AC4" s="42">
+        <v>126</v>
+      </c>
+      <c r="AD4" s="42">
+        <v>126</v>
+      </c>
+      <c r="AF4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI4" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK4" s="71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="42">
+        <v>48</v>
+      </c>
+      <c r="AF5" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ5" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK5" s="71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="42">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK6" s="71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="42">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG7" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH7" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI7" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK7" s="71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="42">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG8" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI8" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK8" s="42"/>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="42">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK9" s="42"/>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="42">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG10" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH10" s="72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="42">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG11" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI11" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK11" s="42"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B12" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="52"/>
+      <c r="AF12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG12" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI12" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK12" s="42"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B13" s="69"/>
+      <c r="D13" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="AF13" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG13" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH13" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI13" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ13" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK13" s="42"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B14" s="69"/>
+      <c r="D14" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="AF14" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG14" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH14" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ14" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK14" s="42"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B15" s="69"/>
+      <c r="D15" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="AF15" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG15" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH15" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI15" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK15" s="42"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B16" s="69"/>
+      <c r="D16" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="AF16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH16" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI16" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK16" s="42"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B17" s="69"/>
+      <c r="D17" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="AF17" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG17" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI17" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK17" s="42"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B18" s="70"/>
+      <c r="D18" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="AA18" s="41"/>
+      <c r="AF18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG18" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI18" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK18" s="71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA19" s="41"/>
+      <c r="AF19" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG19" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI19" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ19" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK19" s="71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA20" s="41"/>
+      <c r="AF20" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG20" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH20" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI20" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ20" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK20" s="71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA21" s="41"/>
+      <c r="AF21" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH21" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA22" s="41"/>
+      <c r="AF22" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG22" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH22" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA23" s="41"/>
+      <c r="AF23" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH23" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA24" s="41"/>
+      <c r="AF24" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG24" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH24" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA25" s="41"/>
+      <c r="AF25" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG25" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH25" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="71"/>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AA26" s="41"/>
+      <c r="AF26" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG26" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH26" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="71"/>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AF27" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG27" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH27" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="71"/>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AF28" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG28" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH28" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="71"/>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AF29" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG29" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH29" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="71"/>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AF30" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG30" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH30" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="D18:S18"/>
+    <mergeCell ref="D17:Q17"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="L12:M14"/>
+    <mergeCell ref="N12:O15"/>
+    <mergeCell ref="P12:Q16"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="D19:S19"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="R12:S17"/>
+    <mergeCell ref="D2:S2"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phase2/rcp_phase234_planning.xlsx
+++ b/phase2/rcp_phase234_planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1FA68-6FC2-3D4E-B1B1-6D3D823E0549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400D845F-E02A-B345-A58C-ABE3AEA7B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -623,11 +623,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,14 +730,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -719,20 +752,35 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -741,34 +789,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,15 +806,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4249,22 +4278,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4664,93 +4693,93 @@
       <c r="AC2" s="31"/>
       <c r="AD2" s="30"/>
       <c r="AE2" s="30"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="55"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="63"/>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="64" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
       <c r="T3" s="30"/>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="49" t="s">
+      <c r="W3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="X3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="49" t="s">
+      <c r="Y3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="49" t="s">
+      <c r="Z3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="64" t="s">
+      <c r="AA3" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="49" t="s">
+      <c r="AB3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="49" t="s">
+      <c r="AC3" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="49" t="s">
+      <c r="AD3" s="57" t="s">
         <v>58</v>
       </c>
       <c r="AE3" s="30"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="55"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="63"/>
     </row>
     <row r="4" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="30"/>
       <c r="D4" s="40">
         <v>0</v>
@@ -4801,16 +4830,16 @@
         <v>255</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
     </row>
     <row r="5" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
@@ -5225,62 +5254,62 @@
       </c>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
-      <c r="D13" s="51" t="s">
+      <c r="B13" s="59"/>
+      <c r="D13" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51" t="s">
+      <c r="G13" s="60"/>
+      <c r="H13" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51" t="s">
+      <c r="I13" s="60"/>
+      <c r="J13" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="61" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="61"/>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="63" t="s">
+      <c r="O13" s="47"/>
+      <c r="P13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="52" t="s">
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="S13" s="52"/>
+      <c r="S13" s="49"/>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="D14" s="47" t="s">
+      <c r="B14" s="45"/>
+      <c r="D14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
       <c r="U14" s="41" t="s">
         <v>51</v>
       </c>
@@ -5302,25 +5331,25 @@
       <c r="AA14" s="41"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B15" s="44"/>
-      <c r="D15" s="48" t="s">
+      <c r="B15" s="45"/>
+      <c r="D15" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
       <c r="U15" s="41" t="s">
         <v>75</v>
       </c>
@@ -5341,25 +5370,25 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="D16" s="59" t="s">
+      <c r="B16" s="45"/>
+      <c r="D16" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
       <c r="U16" s="41" t="s">
         <v>73</v>
       </c>
@@ -5380,25 +5409,25 @@
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="D17" s="60" t="s">
+      <c r="B17" s="45"/>
+      <c r="D17" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
       <c r="U17" s="41" t="s">
         <v>77</v>
       </c>
@@ -5419,25 +5448,25 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="D18" s="58" t="s">
+      <c r="B18" s="45"/>
+      <c r="D18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
       <c r="U18" s="41" t="s">
         <v>78</v>
       </c>
@@ -5458,25 +5487,25 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="D19" s="57" t="s">
+      <c r="B19" s="45"/>
+      <c r="D19" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
       <c r="U19" s="41" t="s">
         <v>80</v>
       </c>
@@ -5709,26 +5738,12 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D19:S19"/>
-    <mergeCell ref="N13:O16"/>
-    <mergeCell ref="P13:Q17"/>
-    <mergeCell ref="R13:S18"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M15"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AS2:AS3"/>
     <mergeCell ref="B3:B4"/>
@@ -5745,12 +5760,26 @@
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M15"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="N13:O16"/>
+    <mergeCell ref="P13:Q17"/>
+    <mergeCell ref="R13:S18"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5760,8 +5789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A19DE15-A1B4-4592-9514-25A784733BD2}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5807,78 +5836,78 @@
     </row>
     <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="U2" s="49" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="U2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="64" t="s">
+      <c r="AA2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="49" t="s">
+      <c r="AC2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="65" t="s">
+      <c r="AG2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="65" t="s">
+      <c r="AH2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="65" t="s">
+      <c r="AI2" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="65" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="65" t="s">
+      <c r="AK2" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="46"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="30"/>
       <c r="D3" s="40">
         <v>0</v>
@@ -5898,10 +5927,10 @@
       <c r="I3" s="40">
         <v>11</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="40">
         <v>12</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="40">
         <v>15</v>
       </c>
       <c r="L3" s="36">
@@ -5929,22 +5958,22 @@
         <v>255</v>
       </c>
       <c r="T3" s="30"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
@@ -6007,13 +6036,13 @@
       <c r="AH4" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="71" t="s">
+      <c r="AI4" s="44" t="s">
         <v>34</v>
       </c>
       <c r="AJ4" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="AK4" s="71" t="s">
+      <c r="AK4" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6078,13 +6107,13 @@
       <c r="AH5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AI5" s="71" t="s">
+      <c r="AI5" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AJ5" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="AK5" s="71" t="s">
+      <c r="AK5" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6149,13 +6178,13 @@
       <c r="AH6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AI6" s="71" t="s">
+      <c r="AI6" s="44" t="s">
         <v>35</v>
       </c>
       <c r="AJ6" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AK6" s="71" t="s">
+      <c r="AK6" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6181,7 +6210,7 @@
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="67" t="s">
+      <c r="U7" s="68" t="s">
         <v>61</v>
       </c>
       <c r="V7" s="42" t="s">
@@ -6216,13 +6245,13 @@
       <c r="AH7" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AI7" s="71" t="s">
+      <c r="AI7" s="44" t="s">
         <v>90</v>
       </c>
       <c r="AJ7" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AK7" s="71" t="s">
+      <c r="AK7" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6237,8 +6266,8 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
@@ -6248,7 +6277,7 @@
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="30"/>
-      <c r="U8" s="50"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="42" t="s">
         <v>17</v>
       </c>
@@ -6281,7 +6310,7 @@
       <c r="AH8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AI8" s="71" t="s">
+      <c r="AI8" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AJ8" s="42" t="s">
@@ -6348,7 +6377,7 @@
       <c r="AH9" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" s="71" t="s">
+      <c r="AI9" s="44" t="s">
         <v>30</v>
       </c>
       <c r="AJ9" s="42" t="s">
@@ -6406,13 +6435,13 @@
       <c r="AD10" s="42">
         <v>2</v>
       </c>
-      <c r="AF10" s="72" t="s">
+      <c r="AF10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AG10" s="72" t="s">
+      <c r="AG10" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AH10" s="72" t="s">
+      <c r="AH10" s="41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6475,7 +6504,7 @@
       <c r="AH11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AI11" s="71" t="s">
+      <c r="AI11" s="44" t="s">
         <v>27</v>
       </c>
       <c r="AJ11" s="42" t="s">
@@ -6483,42 +6512,42 @@
       </c>
       <c r="AK11" s="42"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51" t="s">
+      <c r="G12" s="60"/>
+      <c r="H12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="61" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="61"/>
-      <c r="N12" s="62" t="s">
+      <c r="N12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63" t="s">
+      <c r="O12" s="47"/>
+      <c r="P12" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="52" t="s">
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="52"/>
+      <c r="S12" s="49"/>
       <c r="AF12" s="42" t="s">
         <v>81</v>
       </c>
@@ -6528,7 +6557,7 @@
       <c r="AH12" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AI12" s="71" t="s">
+      <c r="AI12" s="44" t="s">
         <v>87</v>
       </c>
       <c r="AJ12" s="42" t="s">
@@ -6537,27 +6566,27 @@
       <c r="AK12" s="42"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="69"/>
-      <c r="D13" s="47" t="s">
+      <c r="B13" s="70"/>
+      <c r="D13" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
       <c r="AF13" s="42" t="s">
         <v>81</v>
       </c>
@@ -6567,7 +6596,7 @@
       <c r="AH13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AI13" s="71" t="s">
+      <c r="AI13" s="44" t="s">
         <v>36</v>
       </c>
       <c r="AJ13" s="42" t="s">
@@ -6576,25 +6605,25 @@
       <c r="AK13" s="42"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="69"/>
-      <c r="D14" s="48" t="s">
+      <c r="B14" s="70"/>
+      <c r="D14" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
       <c r="AF14" s="42" t="s">
         <v>81</v>
       </c>
@@ -6604,7 +6633,7 @@
       <c r="AH14" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AI14" s="71" t="s">
+      <c r="AI14" s="44" t="s">
         <v>40</v>
       </c>
       <c r="AJ14" s="42" t="s">
@@ -6613,25 +6642,25 @@
       <c r="AK14" s="42"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="69"/>
-      <c r="D15" s="59" t="s">
+      <c r="B15" s="70"/>
+      <c r="D15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
       <c r="AF15" s="42" t="s">
         <v>82</v>
       </c>
@@ -6641,7 +6670,7 @@
       <c r="AH15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AI15" s="71" t="s">
+      <c r="AI15" s="44" t="s">
         <v>28</v>
       </c>
       <c r="AJ15" s="42" t="s">
@@ -6650,25 +6679,25 @@
       <c r="AK15" s="42"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B16" s="69"/>
-      <c r="D16" s="60" t="s">
+      <c r="B16" s="70"/>
+      <c r="D16" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
       <c r="AF16" s="42" t="s">
         <v>82</v>
       </c>
@@ -6678,7 +6707,7 @@
       <c r="AH16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AI16" s="71" t="s">
+      <c r="AI16" s="44" t="s">
         <v>31</v>
       </c>
       <c r="AJ16" s="42" t="s">
@@ -6687,35 +6716,35 @@
       <c r="AK16" s="42"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="69"/>
-      <c r="D17" s="58" t="s">
+      <c r="B17" s="70"/>
+      <c r="D17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
       <c r="AF17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AG17" s="72" t="s">
+      <c r="AG17" s="41" t="s">
         <v>98</v>
       </c>
       <c r="AH17" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AI17" s="71" t="s">
+      <c r="AI17" s="44" t="s">
         <v>10</v>
       </c>
       <c r="AJ17" s="42" t="s">
@@ -6724,25 +6753,25 @@
       <c r="AK17" s="42"/>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B18" s="70"/>
-      <c r="D18" s="57" t="s">
+      <c r="B18" s="71"/>
+      <c r="D18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
       <c r="AA18" s="41"/>
       <c r="AF18" s="42" t="s">
         <v>84</v>
@@ -6753,13 +6782,13 @@
       <c r="AH18" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AI18" s="71" t="s">
+      <c r="AI18" s="44" t="s">
         <v>25</v>
       </c>
       <c r="AJ18" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AK18" s="71" t="s">
+      <c r="AK18" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6774,13 +6803,13 @@
       <c r="AH19" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AI19" s="71" t="s">
+      <c r="AI19" s="44" t="s">
         <v>91</v>
       </c>
       <c r="AJ19" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AK19" s="71" t="s">
+      <c r="AK19" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6795,13 +6824,13 @@
       <c r="AH20" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AI20" s="71" t="s">
+      <c r="AI20" s="44" t="s">
         <v>92</v>
       </c>
       <c r="AJ20" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AK20" s="71" t="s">
+      <c r="AK20" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6816,9 +6845,9 @@
       <c r="AH21" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AA22" s="41"/>
@@ -6831,9 +6860,9 @@
       <c r="AH22" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AA23" s="41"/>
@@ -6846,9 +6875,9 @@
       <c r="AH23" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AA24" s="41"/>
@@ -6861,9 +6890,9 @@
       <c r="AH24" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AA25" s="41"/>
@@ -6876,9 +6905,9 @@
       <c r="AH25" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AA26" s="41"/>
@@ -6891,9 +6920,9 @@
       <c r="AH26" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="71"/>
-      <c r="AK26" s="71"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AF27" s="42" t="s">
@@ -6905,9 +6934,9 @@
       <c r="AH27" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="71"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AF28" s="42" t="s">
@@ -6919,9 +6948,9 @@
       <c r="AH28" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="71"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AF29" s="42" t="s">
@@ -6933,9 +6962,9 @@
       <c r="AH29" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AF30" s="42" t="s">
@@ -6947,31 +6976,12 @@
       <c r="AH30" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="D18:S18"/>
-    <mergeCell ref="D17:Q17"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="L12:M14"/>
-    <mergeCell ref="N12:O15"/>
-    <mergeCell ref="P12:Q16"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:K14"/>
@@ -6988,6 +6998,25 @@
     <mergeCell ref="D2:S2"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="D18:S18"/>
+    <mergeCell ref="D17:Q17"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="L12:M14"/>
+    <mergeCell ref="N12:O15"/>
+    <mergeCell ref="P12:Q16"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phase2/rcp_phase234_planning.xlsx
+++ b/phase2/rcp_phase234_planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400D845F-E02A-B345-A58C-ABE3AEA7B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A45D05-A1E6-B643-B0C7-1D836D87FF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="139">
   <si>
     <t>/24</t>
   </si>
@@ -321,86 +321,134 @@
 portrayal</t>
   </si>
   <si>
-    <t>Router-PT - Fa0/0</t>
-  </si>
-  <si>
-    <t>Router-PT - Fa1/0</t>
-  </si>
-  <si>
-    <t>PC-PT - Fa0</t>
-  </si>
-  <si>
-    <t>Laptop-PT - Fa0</t>
-  </si>
-  <si>
-    <t>Server-PT - Fa0</t>
-  </si>
-  <si>
     <t>Sw0</t>
   </si>
   <si>
     <t>Sw1</t>
   </si>
   <si>
-    <t>2960-24TT - Fa0/1</t>
-  </si>
-  <si>
-    <t>2960-24TT - Fa0/2</t>
-  </si>
-  <si>
-    <t>2960-24TT - Fa0/3</t>
-  </si>
-  <si>
-    <t>LAN A - R1</t>
-  </si>
-  <si>
-    <t>LAN A - PC0</t>
-  </si>
-  <si>
-    <t>LAN A - Laptop0</t>
-  </si>
-  <si>
-    <t>LAN B - R1</t>
-  </si>
-  <si>
-    <t>LAN B - PC1</t>
-  </si>
-  <si>
-    <t>LAN B - Laptop1</t>
-  </si>
-  <si>
     <t>External</t>
   </si>
   <si>
-    <t>Router-PT - Fa5/0</t>
-  </si>
-  <si>
-    <t>Router-PT - Fa4/0</t>
-  </si>
-  <si>
     <t>Sw2</t>
   </si>
   <si>
-    <t>2960-24TT - Fa0/4</t>
-  </si>
-  <si>
-    <t>LAN Server - DHCP</t>
-  </si>
-  <si>
-    <t>LAN Server - DNS</t>
-  </si>
-  <si>
-    <t>LAN Server - HTTP</t>
-  </si>
-  <si>
-    <t>LAN Server - R2</t>
+    <t>192.168.7.</t>
+  </si>
+  <si>
+    <t>129 - 253</t>
+  </si>
+  <si>
+    <t>Usable IPs</t>
+  </si>
+  <si>
+    <t>65 - 125</t>
+  </si>
+  <si>
+    <t>33 - 61</t>
+  </si>
+  <si>
+    <t>17 - 30</t>
+  </si>
+  <si>
+    <t>13 - 14</t>
+  </si>
+  <si>
+    <t>9 - 10</t>
+  </si>
+  <si>
+    <t>5 - 6</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>Fa0/0</t>
+  </si>
+  <si>
+    <t>Ports Link</t>
+  </si>
+  <si>
+    <t>Fa0/0 -&gt; Sw0 Fa0/1</t>
+  </si>
+  <si>
+    <t>Fa0 -&gt; Sw0 Fa0/2</t>
+  </si>
+  <si>
+    <t>Fa0 -&gt; Sw0 Fa0/3</t>
+  </si>
+  <si>
+    <t>Fa0 -&gt; Sw1 Fa0/2</t>
+  </si>
+  <si>
+    <t>Fa0 -&gt; Sw1 Fa0/3</t>
+  </si>
+  <si>
+    <t>Fa0 -&gt; Sw2 Fa0/3</t>
+  </si>
+  <si>
+    <t>Fa0 -&gt; Sw2 Fa0/2</t>
+  </si>
+  <si>
+    <t>Fa0 -&gt; Sw2 Fa0/1</t>
+  </si>
+  <si>
+    <t>Fa0/1 -&gt; R1 Fa0/0</t>
+  </si>
+  <si>
+    <t>Fa0/2 -&gt; PC0</t>
+  </si>
+  <si>
+    <t>Fa0/3 -&gt; Laptop0</t>
+  </si>
+  <si>
+    <t>Fa0/1 -&gt; R1 Fa1/0</t>
+  </si>
+  <si>
+    <t>Fa0/2 -&gt; PC1</t>
+  </si>
+  <si>
+    <t>Fa0/3 -&gt; Laptop1</t>
+  </si>
+  <si>
+    <t>Fa0/1 -&gt; HTTP</t>
+  </si>
+  <si>
+    <t>Fa0/2 -&gt; DNS</t>
+  </si>
+  <si>
+    <t>Fa0/3 -&gt; DHCP</t>
+  </si>
+  <si>
+    <t>Fa0/4 -&gt; R2 Fa0/0</t>
+  </si>
+  <si>
+    <t>Fa1/0 -&gt; Sw1 Fa0/1</t>
+  </si>
+  <si>
+    <t>Fa5/0 -&gt; R1 Fa5/0</t>
+  </si>
+  <si>
+    <t>Fa4/0 -&gt; R2 Fa4/0</t>
+  </si>
+  <si>
+    <t>Fa4/0 -&gt; R2 Fa5/0</t>
+  </si>
+  <si>
+    <t>Fa5/0 -&gt; R1 Fa4/0</t>
+  </si>
+  <si>
+    <t>Fa4/0 -&gt; R0 Fa4/0</t>
+  </si>
+  <si>
+    <t>Fa0/0 -&gt; Sw2 Fa0/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +458,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -653,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +871,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5787,10 +5874,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A19DE15-A1B4-4592-9514-25A784733BD2}">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5798,21 +5885,24 @@
     <col min="3" max="3" width="2.1640625" customWidth="1"/>
     <col min="4" max="19" width="4" customWidth="1"/>
     <col min="20" max="20" width="2.1640625" customWidth="1"/>
-    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.6640625" customWidth="1"/>
-    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="1.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="D1"/>
       <c r="E1" s="31"/>
@@ -5830,11 +5920,11 @@
       <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
       <c r="S1" s="31"/>
+      <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AK1" s="31"/>
-    </row>
-    <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="31"/>
+    </row>
+    <row r="2" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2" s="64" t="s">
         <v>55</v>
@@ -5860,53 +5950,50 @@
       <c r="U2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="57" t="s">
+      <c r="V2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="57" t="s">
+      <c r="W2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="57" t="s">
+      <c r="Y2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="Z2" s="41" t="s">
         <v>71</v>
       </c>
+      <c r="AA2" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AB2" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC2" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AE2" s="56" t="s">
         <v>51</v>
       </c>
+      <c r="AF2" s="74" t="s">
+        <v>113</v>
+      </c>
       <c r="AG2" s="56" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AH2" s="56" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AI2" s="56" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" s="56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65"/>
       <c r="C3" s="30"/>
       <c r="D3" s="40">
@@ -5959,23 +6046,24 @@
       </c>
       <c r="T3" s="30"/>
       <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="56"/>
+      <c r="V3" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="58"/>
       <c r="AB3" s="58"/>
       <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AF3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="56"/>
       <c r="AG3" s="67"/>
       <c r="AH3" s="67"/>
       <c r="AI3" s="67"/>
       <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-    </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
@@ -5997,56 +6085,53 @@
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="42" t="s">
-        <v>11</v>
+      <c r="V4" s="81">
+        <v>128</v>
       </c>
       <c r="W4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="42" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="X4" s="42">
+        <v>254</v>
+      </c>
+      <c r="Y4" s="42">
+        <v>255</v>
+      </c>
+      <c r="Z4" s="42">
+        <v>128</v>
+      </c>
+      <c r="AA4" s="42">
+        <v>128</v>
       </c>
       <c r="AB4" s="42">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AC4" s="42">
         <v>126</v>
       </c>
-      <c r="AD4" s="42">
-        <v>126</v>
+      <c r="AE4" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="AF4" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH4" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG4" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="44" t="s">
+      <c r="AH4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AI4" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="AK4" s="44" t="s">
+      <c r="AJ4" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
@@ -6068,56 +6153,51 @@
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="42" t="s">
-        <v>12</v>
+      <c r="V5" s="81">
+        <v>64</v>
       </c>
       <c r="W5" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="X5" s="42">
+        <v>126</v>
+      </c>
+      <c r="Y5" s="42">
+        <v>127</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>192</v>
+      </c>
+      <c r="AA5" s="42">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>62</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA5" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB5" s="42">
-        <v>64</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>62</v>
-      </c>
-      <c r="AD5" s="42">
-        <v>48</v>
-      </c>
-      <c r="AF5" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG5" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ5" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK5" s="44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
@@ -6139,56 +6219,53 @@
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
       <c r="T6" s="30"/>
-      <c r="U6" s="42" t="s">
+      <c r="U6" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="42" t="s">
-        <v>13</v>
+      <c r="V6" s="81">
+        <v>32</v>
       </c>
       <c r="W6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="42">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="42">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="42">
+        <v>224</v>
+      </c>
+      <c r="AA6" s="42">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF6" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG6" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="X6" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6" s="42" t="s">
+      <c r="AI6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA6" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB6" s="42">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="42">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="42">
-        <v>27</v>
-      </c>
-      <c r="AF6" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH6" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI6" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ6" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK6" s="44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
@@ -6213,49 +6290,44 @@
       <c r="U7" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="42" t="s">
-        <v>62</v>
+      <c r="V7" s="80">
+        <v>16</v>
       </c>
       <c r="W7" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="X7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="42"/>
+        <v>107</v>
+      </c>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42">
+        <v>16</v>
+      </c>
       <c r="AB7" s="42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC7" s="42">
-        <v>14</v>
-      </c>
-      <c r="AD7" s="42">
         <v>0</v>
       </c>
+      <c r="AE7" s="42" t="s">
+        <v>78</v>
+      </c>
       <c r="AF7" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG7" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH7" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI7" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="AJ7" s="42" t="s">
+      <c r="AI7" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AK7" s="44" t="s">
+      <c r="AJ7" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -6278,47 +6350,44 @@
       <c r="S8" s="35"/>
       <c r="T8" s="30"/>
       <c r="U8" s="58"/>
-      <c r="V8" s="42" t="s">
-        <v>17</v>
+      <c r="V8" s="79">
+        <v>12</v>
       </c>
       <c r="W8" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA8" s="42"/>
+        <v>108</v>
+      </c>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="42">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42">
+        <v>4</v>
+      </c>
       <c r="AB8" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="42">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="42">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="68" t="s">
+        <v>80</v>
       </c>
       <c r="AF8" s="42" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AG8" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AI8" s="44" t="s">
+      <c r="AH8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ8" s="42" t="s">
+      <c r="AI8" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AK8" s="42"/>
-    </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="42"/>
+    </row>
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>6</v>
       </c>
@@ -6340,52 +6409,47 @@
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="30"/>
-      <c r="U9" s="42" t="s">
+      <c r="U9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="V9" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA9" s="42" t="s">
-        <v>95</v>
+      <c r="V9" s="81">
+        <v>8</v>
+      </c>
+      <c r="W9" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="42">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="42">
+        <v>252</v>
+      </c>
+      <c r="AA9" s="42">
+        <v>4</v>
       </c>
       <c r="AB9" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="42">
         <v>2</v>
       </c>
-      <c r="AD9" s="42">
-        <v>2</v>
-      </c>
+      <c r="AE9" s="75"/>
       <c r="AF9" s="42" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AG9" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH9" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" s="44" t="s">
+      <c r="AH9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AJ9" s="42" t="s">
+      <c r="AI9" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AK9" s="42"/>
-    </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="42"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>6</v>
       </c>
@@ -6407,45 +6471,40 @@
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="30"/>
-      <c r="U10" s="42" t="s">
+      <c r="U10" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="V10" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="W10" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA10" s="42" t="s">
-        <v>95</v>
+      <c r="V10" s="81">
+        <v>4</v>
+      </c>
+      <c r="W10" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="42">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="42">
+        <v>252</v>
+      </c>
+      <c r="AA10" s="42">
+        <v>4</v>
       </c>
       <c r="AB10" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="42">
         <v>2</v>
       </c>
-      <c r="AD10" s="42">
-        <v>2</v>
-      </c>
+      <c r="AE10" s="58"/>
       <c r="AF10" s="41" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AG10" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH10" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>6</v>
       </c>
@@ -6467,52 +6526,49 @@
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="32"/>
-      <c r="U11" s="42" t="s">
+      <c r="U11" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="V11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA11" s="42" t="s">
-        <v>95</v>
+      <c r="V11" s="81">
+        <v>0</v>
+      </c>
+      <c r="W11" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="42">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="42">
+        <v>252</v>
+      </c>
+      <c r="AA11" s="42">
+        <v>4</v>
       </c>
       <c r="AB11" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="42">
         <v>2</v>
       </c>
-      <c r="AD11" s="42">
-        <v>2</v>
+      <c r="AE11" s="68" t="s">
+        <v>81</v>
       </c>
       <c r="AF11" s="42" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="AG11" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AI11" s="44" t="s">
+      <c r="AH11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AJ11" s="42" t="s">
+      <c r="AI11" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AK11" s="42"/>
-    </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="42"/>
+    </row>
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="69" t="s">
         <v>97</v>
       </c>
@@ -6548,24 +6604,22 @@
         <v>1</v>
       </c>
       <c r="S12" s="49"/>
+      <c r="AE12" s="75"/>
       <c r="AF12" s="42" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AG12" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH12" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AI12" s="44" t="s">
+      <c r="AH12" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="AJ12" s="42" t="s">
+      <c r="AI12" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AK12" s="42"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="42"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" s="70"/>
       <c r="D13" s="50" t="s">
         <v>5</v>
@@ -6587,24 +6641,22 @@
       <c r="Q13" s="48"/>
       <c r="R13" s="49"/>
       <c r="S13" s="49"/>
-      <c r="AF13" s="42" t="s">
-        <v>81</v>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="AG13" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AI13" s="44" t="s">
+      <c r="AH13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AJ13" s="42" t="s">
+      <c r="AI13" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="AK13" s="42"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="42"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" s="70"/>
       <c r="D14" s="51" t="s">
         <v>4</v>
@@ -6624,24 +6676,22 @@
       <c r="Q14" s="48"/>
       <c r="R14" s="49"/>
       <c r="S14" s="49"/>
+      <c r="AE14" s="58"/>
       <c r="AF14" s="42" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AG14" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH14" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AI14" s="44" t="s">
+      <c r="AH14" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="42" t="s">
+      <c r="AI14" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AK14" s="42"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AJ14" s="42"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" s="70"/>
       <c r="D15" s="52" t="s">
         <v>3</v>
@@ -6661,24 +6711,24 @@
       <c r="Q15" s="48"/>
       <c r="R15" s="49"/>
       <c r="S15" s="49"/>
+      <c r="AE15" s="68" t="s">
+        <v>82</v>
+      </c>
       <c r="AF15" s="42" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AG15" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AI15" s="44" t="s">
+      <c r="AH15" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AJ15" s="42" t="s">
+      <c r="AI15" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AK15" s="42"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="42"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B16" s="70"/>
       <c r="D16" s="53" t="s">
         <v>2</v>
@@ -6698,24 +6748,22 @@
       <c r="Q16" s="48"/>
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
+      <c r="AE16" s="75"/>
       <c r="AF16" s="42" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AG16" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AI16" s="44" t="s">
+      <c r="AH16" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AJ16" s="42" t="s">
+      <c r="AI16" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AK16" s="42"/>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="42"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" s="70"/>
       <c r="D17" s="54" t="s">
         <v>1</v>
@@ -6735,24 +6783,22 @@
       <c r="Q17" s="54"/>
       <c r="R17" s="49"/>
       <c r="S17" s="49"/>
-      <c r="AF17" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG17" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH17" s="42" t="s">
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG17" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AI17" s="44" t="s">
+      <c r="AH17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AJ17" s="42" t="s">
+      <c r="AI17" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AK17" s="42"/>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="42"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" s="71"/>
       <c r="D18" s="46" t="s">
         <v>0</v>
@@ -6772,223 +6818,199 @@
       <c r="Q18" s="46"/>
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
-      <c r="AA18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AE18" s="42" t="s">
+        <v>84</v>
+      </c>
       <c r="AF18" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG18" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH18" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG18" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AI18" s="44" t="s">
+      <c r="AH18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AJ18" s="42" t="s">
+      <c r="AI18" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AK18" s="44" t="s">
+      <c r="AJ18" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA19" s="41"/>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z19" s="41"/>
+      <c r="AE19" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="AF19" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG19" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH19" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI19" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ19" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z20" s="41"/>
+      <c r="AE20" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF20" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI20" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ20" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z21" s="41"/>
+      <c r="AE21" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF21" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG21" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z22" s="41"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z23" s="41"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z24" s="41"/>
+      <c r="AE24" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF24" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG24" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z25" s="41"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Z26" s="41"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="83"/>
+      <c r="AJ26" s="83"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE27" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF27" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG27" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AI19" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ19" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK19" s="44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA20" s="41"/>
-      <c r="AF20" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG20" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI20" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ20" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK20" s="44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA21" s="41"/>
-      <c r="AF21" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG21" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH21" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA22" s="41"/>
-      <c r="AF22" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG22" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH22" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA23" s="41"/>
-      <c r="AF23" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG23" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH23" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA24" s="41"/>
-      <c r="AF24" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG24" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH24" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA25" s="41"/>
-      <c r="AF25" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG25" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH25" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AA26" s="41"/>
-      <c r="AF26" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG26" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH26" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AF27" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG27" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH27" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE28" s="75"/>
       <c r="AF28" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG28" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH28" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE29" s="75"/>
       <c r="AF29" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG29" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH29" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE30" s="58"/>
       <c r="AF30" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG30" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH30" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
+        <v>131</v>
+      </c>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="84"/>
+      <c r="AI30" s="84"/>
+      <c r="AJ30" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="43">
+    <mergeCell ref="AH21:AJ30"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AG18:AG20"/>
+    <mergeCell ref="AG21:AG23"/>
+    <mergeCell ref="AG24:AG26"/>
+    <mergeCell ref="AG27:AG30"/>
+    <mergeCell ref="AE15:AE17"/>
+    <mergeCell ref="AE11:AE14"/>
+    <mergeCell ref="AE21:AE23"/>
+    <mergeCell ref="AE24:AE26"/>
+    <mergeCell ref="AE27:AE30"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
@@ -7005,19 +7027,20 @@
     <mergeCell ref="L12:M14"/>
     <mergeCell ref="N12:O15"/>
     <mergeCell ref="P12:Q16"/>
+    <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/phase2/rcp_phase234_planning.xlsx
+++ b/phase2/rcp_phase234_planning.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A45D05-A1E6-B643-B0C7-1D836D87FF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3EF41E-E490-8D4D-8C72-F492BAE356EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL256IP" sheetId="2" r:id="rId1"/>
     <sheet name="PlanningOld" sheetId="3" r:id="rId2"/>
     <sheet name="PlanningNew" sheetId="7" r:id="rId3"/>
     <sheet name="PlanningNewV2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="158">
   <si>
     <t>/24</t>
   </si>
@@ -442,6 +443,81 @@
   </si>
   <si>
     <t>Fa0/0 -&gt; Sw2 Fa0/4</t>
+  </si>
+  <si>
+    <t>Version
+4 bits</t>
+  </si>
+  <si>
+    <t>Type of Service
+8 bits</t>
+  </si>
+  <si>
+    <t>Total Length
+16 bits</t>
+  </si>
+  <si>
+    <t>Identification
+16 bits</t>
+  </si>
+  <si>
+    <t>Time to Live
+8 bits</t>
+  </si>
+  <si>
+    <t>Protocol
+8 bits</t>
+  </si>
+  <si>
+    <t>Header Checksum
+16 bits</t>
+  </si>
+  <si>
+    <t>Don't Fragment
+1 bit</t>
+  </si>
+  <si>
+    <t>More Fragment
+1 bit</t>
+  </si>
+  <si>
+    <t>Fragment Offset
+13 bits</t>
+  </si>
+  <si>
+    <t>Destination IP
+32 bits (4 Bytes)</t>
+  </si>
+  <si>
+    <t>Source IP
+32 bits (4 Bytes)</t>
+  </si>
+  <si>
+    <t>Option
+0 - 40 Bytes</t>
+  </si>
+  <si>
+    <t>DATA
+20 Bytes - 65536 Bytes</t>
+  </si>
+  <si>
+    <t>32 bits (4 Bytes)</t>
+  </si>
+  <si>
+    <t>20 Bytes
+(Min Header)</t>
+  </si>
+  <si>
+    <t>60 Bytes
+(Max Header)</t>
+  </si>
+  <si>
+    <t>Header Length
+4bits</t>
+  </si>
+  <si>
+    <t>Reserved
+1 bit</t>
   </si>
 </sst>
 </file>
@@ -707,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,23 +861,32 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -836,6 +921,21 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -857,6 +957,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -866,44 +972,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4365,22 +4453,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4780,93 +4868,93 @@
       <c r="AC2" s="31"/>
       <c r="AD2" s="30"/>
       <c r="AE2" s="30"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="63"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="71"/>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="72" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
       <c r="T3" s="30"/>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="57" t="s">
+      <c r="W3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="X3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="57" t="s">
+      <c r="Z3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="55" t="s">
+      <c r="AA3" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AB3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="AD3" s="60" t="s">
         <v>58</v>
       </c>
       <c r="AE3" s="30"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="63"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="71"/>
     </row>
     <row r="4" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="30"/>
       <c r="D4" s="40">
         <v>0</v>
@@ -4917,16 +5005,16 @@
         <v>255</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
     </row>
     <row r="5" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
@@ -5341,62 +5429,62 @@
       </c>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B13" s="59"/>
-      <c r="D13" s="60" t="s">
+      <c r="B13" s="62"/>
+      <c r="D13" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60" t="s">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60" t="s">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61" t="s">
+      <c r="K13" s="63"/>
+      <c r="L13" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="47" t="s">
+      <c r="M13" s="64"/>
+      <c r="N13" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48" t="s">
+      <c r="O13" s="66"/>
+      <c r="P13" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49" t="s">
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="S13" s="49"/>
+      <c r="S13" s="68"/>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
-      <c r="D14" s="50" t="s">
+      <c r="B14" s="53"/>
+      <c r="D14" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50" t="s">
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
       <c r="U14" s="41" t="s">
         <v>51</v>
       </c>
@@ -5418,25 +5506,25 @@
       <c r="AA14" s="41"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B15" s="45"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="53"/>
+      <c r="D15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
       <c r="U15" s="41" t="s">
         <v>75</v>
       </c>
@@ -5457,25 +5545,25 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="45"/>
-      <c r="D16" s="52" t="s">
+      <c r="B16" s="53"/>
+      <c r="D16" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
       <c r="U16" s="41" t="s">
         <v>73</v>
       </c>
@@ -5496,25 +5584,25 @@
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="45"/>
-      <c r="D17" s="53" t="s">
+      <c r="B17" s="53"/>
+      <c r="D17" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
       <c r="U17" s="41" t="s">
         <v>77</v>
       </c>
@@ -5535,25 +5623,25 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="45"/>
-      <c r="D18" s="54" t="s">
+      <c r="B18" s="53"/>
+      <c r="D18" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
       <c r="U18" s="41" t="s">
         <v>78</v>
       </c>
@@ -5574,25 +5662,25 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="45"/>
-      <c r="D19" s="46" t="s">
+      <c r="B19" s="53"/>
+      <c r="D19" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
       <c r="U19" s="41" t="s">
         <v>80</v>
       </c>
@@ -5847,7 +5935,6 @@
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
@@ -5867,6 +5954,7 @@
     <mergeCell ref="D16:M16"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5876,7 +5964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A19DE15-A1B4-4592-9514-25A784733BD2}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG6" sqref="AG6:AG7"/>
     </sheetView>
   </sheetViews>
@@ -5926,28 +6014,28 @@
     </row>
     <row r="2" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="U2" s="57" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="U2" s="60" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="41" t="s">
@@ -5965,36 +6053,36 @@
       <c r="Z2" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="57" t="s">
+      <c r="AA2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="57" t="s">
+      <c r="AB2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="57" t="s">
+      <c r="AC2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AE2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="74" t="s">
+      <c r="AF2" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="AG2" s="56" t="s">
+      <c r="AG2" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="56" t="s">
+      <c r="AH2" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="56" t="s">
+      <c r="AI2" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AJ2" s="59" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="30"/>
       <c r="D3" s="40">
         <v>0</v>
@@ -6045,23 +6133,23 @@
         <v>255</v>
       </c>
       <c r="T3" s="30"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="61"/>
+      <c r="V3" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
@@ -6085,10 +6173,10 @@
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="81">
+      <c r="V4" s="50">
         <v>128</v>
       </c>
       <c r="W4" s="42" t="s">
@@ -6118,7 +6206,7 @@
       <c r="AF4" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AG4" s="68" t="s">
+      <c r="AG4" s="76" t="s">
         <v>59</v>
       </c>
       <c r="AH4" s="44" t="s">
@@ -6153,10 +6241,10 @@
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="81">
+      <c r="V5" s="50">
         <v>64</v>
       </c>
       <c r="W5" s="42" t="s">
@@ -6186,7 +6274,7 @@
       <c r="AF5" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="AG5" s="58"/>
+      <c r="AG5" s="61"/>
       <c r="AH5" s="44" t="s">
         <v>89</v>
       </c>
@@ -6219,10 +6307,10 @@
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
       <c r="T6" s="30"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="81">
+      <c r="V6" s="50">
         <v>32</v>
       </c>
       <c r="W6" s="42" t="s">
@@ -6252,7 +6340,7 @@
       <c r="AF6" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AG6" s="68" t="s">
+      <c r="AG6" s="76" t="s">
         <v>60</v>
       </c>
       <c r="AH6" s="44" t="s">
@@ -6287,10 +6375,10 @@
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="68" t="s">
+      <c r="U7" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="80">
+      <c r="V7" s="49">
         <v>16</v>
       </c>
       <c r="W7" s="42" t="s">
@@ -6316,7 +6404,7 @@
       <c r="AF7" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AG7" s="58"/>
+      <c r="AG7" s="61"/>
       <c r="AH7" s="44" t="s">
         <v>90</v>
       </c>
@@ -6349,8 +6437,8 @@
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="30"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="79">
+      <c r="U8" s="61"/>
+      <c r="V8" s="48">
         <v>12</v>
       </c>
       <c r="W8" s="42" t="s">
@@ -6370,7 +6458,7 @@
       <c r="AC8" s="42">
         <v>0</v>
       </c>
-      <c r="AE8" s="68" t="s">
+      <c r="AE8" s="76" t="s">
         <v>80</v>
       </c>
       <c r="AF8" s="42" t="s">
@@ -6409,13 +6497,13 @@
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="30"/>
-      <c r="U9" s="79" t="s">
+      <c r="U9" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="V9" s="81">
+      <c r="V9" s="50">
         <v>8</v>
       </c>
-      <c r="W9" s="82" t="s">
+      <c r="W9" s="51" t="s">
         <v>109</v>
       </c>
       <c r="X9" s="43"/>
@@ -6434,7 +6522,7 @@
       <c r="AC9" s="42">
         <v>2</v>
       </c>
-      <c r="AE9" s="75"/>
+      <c r="AE9" s="60"/>
       <c r="AF9" s="42" t="s">
         <v>134</v>
       </c>
@@ -6471,13 +6559,13 @@
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="30"/>
-      <c r="U10" s="79" t="s">
+      <c r="U10" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="V10" s="81">
+      <c r="V10" s="50">
         <v>4</v>
       </c>
-      <c r="W10" s="82" t="s">
+      <c r="W10" s="51" t="s">
         <v>110</v>
       </c>
       <c r="X10" s="43"/>
@@ -6496,7 +6584,7 @@
       <c r="AC10" s="42">
         <v>2</v>
       </c>
-      <c r="AE10" s="58"/>
+      <c r="AE10" s="61"/>
       <c r="AF10" s="41" t="s">
         <v>112</v>
       </c>
@@ -6526,13 +6614,13 @@
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="32"/>
-      <c r="U11" s="79" t="s">
+      <c r="U11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="V11" s="81">
+      <c r="V11" s="50">
         <v>0</v>
       </c>
-      <c r="W11" s="82" t="s">
+      <c r="W11" s="51" t="s">
         <v>111</v>
       </c>
       <c r="X11" s="43"/>
@@ -6551,7 +6639,7 @@
       <c r="AC11" s="42">
         <v>2</v>
       </c>
-      <c r="AE11" s="68" t="s">
+      <c r="AE11" s="76" t="s">
         <v>81</v>
       </c>
       <c r="AF11" s="42" t="s">
@@ -6569,42 +6657,42 @@
       <c r="AJ11" s="42"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60" t="s">
+      <c r="E12" s="63"/>
+      <c r="F12" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="72" t="s">
+      <c r="I12" s="63"/>
+      <c r="J12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="61" t="s">
+      <c r="K12" s="78"/>
+      <c r="L12" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="47" t="s">
+      <c r="M12" s="64"/>
+      <c r="N12" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48" t="s">
+      <c r="O12" s="66"/>
+      <c r="P12" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49" t="s">
+      <c r="Q12" s="67"/>
+      <c r="R12" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="AE12" s="75"/>
+      <c r="S12" s="68"/>
+      <c r="AE12" s="60"/>
       <c r="AF12" s="42" t="s">
         <v>136</v>
       </c>
@@ -6620,28 +6708,28 @@
       <c r="AJ12" s="42"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B13" s="70"/>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="80"/>
+      <c r="D13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="AE13" s="75"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="AE13" s="60"/>
       <c r="AF13" s="41" t="s">
         <v>114</v>
       </c>
@@ -6657,26 +6745,26 @@
       <c r="AJ13" s="42"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="70"/>
-      <c r="D14" s="51" t="s">
+      <c r="B14" s="80"/>
+      <c r="D14" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="AE14" s="58"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="AE14" s="61"/>
       <c r="AF14" s="42" t="s">
         <v>132</v>
       </c>
@@ -6692,26 +6780,26 @@
       <c r="AJ14" s="42"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B15" s="70"/>
-      <c r="D15" s="52" t="s">
+      <c r="B15" s="80"/>
+      <c r="D15" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="AE15" s="68" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="AE15" s="76" t="s">
         <v>82</v>
       </c>
       <c r="AF15" s="42" t="s">
@@ -6729,26 +6817,26 @@
       <c r="AJ15" s="42"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B16" s="70"/>
-      <c r="D16" s="53" t="s">
+      <c r="B16" s="80"/>
+      <c r="D16" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="AE16" s="75"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="AE16" s="60"/>
       <c r="AF16" s="42" t="s">
         <v>137</v>
       </c>
@@ -6764,26 +6852,26 @@
       <c r="AJ16" s="42"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B17" s="70"/>
-      <c r="D17" s="54" t="s">
+      <c r="B17" s="80"/>
+      <c r="D17" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="AE17" s="58"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="AE17" s="61"/>
       <c r="AF17" s="41" t="s">
         <v>138</v>
       </c>
@@ -6799,25 +6887,25 @@
       <c r="AJ17" s="42"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B18" s="71"/>
-      <c r="D18" s="46" t="s">
+      <c r="B18" s="81"/>
+      <c r="D18" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
       <c r="Z18" s="41"/>
       <c r="AE18" s="42" t="s">
         <v>84</v>
@@ -6825,7 +6913,7 @@
       <c r="AF18" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="AG18" s="68" t="s">
+      <c r="AG18" s="76" t="s">
         <v>88</v>
       </c>
       <c r="AH18" s="44" t="s">
@@ -6846,7 +6934,7 @@
       <c r="AF19" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="AG19" s="75"/>
+      <c r="AG19" s="60"/>
       <c r="AH19" s="44" t="s">
         <v>91</v>
       </c>
@@ -6865,7 +6953,7 @@
       <c r="AF20" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="AG20" s="58"/>
+      <c r="AG20" s="61"/>
       <c r="AH20" s="44" t="s">
         <v>92</v>
       </c>
@@ -6878,136 +6966,135 @@
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z21" s="41"/>
-      <c r="AE21" s="68" t="s">
+      <c r="AE21" s="76" t="s">
         <v>98</v>
       </c>
       <c r="AF21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="AG21" s="68" t="s">
+      <c r="AG21" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z22" s="41"/>
-      <c r="AE22" s="75"/>
+      <c r="AE22" s="60"/>
       <c r="AF22" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="83"/>
-      <c r="AJ22" s="83"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z23" s="41"/>
-      <c r="AE23" s="58"/>
+      <c r="AE23" s="61"/>
       <c r="AF23" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
-      <c r="AJ23" s="83"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z24" s="41"/>
-      <c r="AE24" s="68" t="s">
+      <c r="AE24" s="76" t="s">
         <v>99</v>
       </c>
       <c r="AF24" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="AG24" s="68" t="s">
+      <c r="AG24" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="83"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z25" s="41"/>
-      <c r="AE25" s="75"/>
+      <c r="AE25" s="60"/>
       <c r="AF25" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="83"/>
-      <c r="AJ25" s="83"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z26" s="41"/>
-      <c r="AE26" s="58"/>
+      <c r="AE26" s="61"/>
       <c r="AF26" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="83"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="53"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE27" s="68" t="s">
+      <c r="AE27" s="76" t="s">
         <v>101</v>
       </c>
       <c r="AF27" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="AG27" s="68" t="s">
+      <c r="AG27" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE28" s="75"/>
+      <c r="AE28" s="60"/>
       <c r="AF28" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="AG28" s="75"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="83"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE29" s="75"/>
+      <c r="AE29" s="60"/>
       <c r="AF29" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="AG29" s="75"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="83"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE30" s="58"/>
+      <c r="AE30" s="61"/>
       <c r="AF30" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="84"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AH21:AJ30"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AG6:AG7"/>
     <mergeCell ref="AG18:AG20"/>
     <mergeCell ref="AG21:AG23"/>
     <mergeCell ref="AG24:AG26"/>
-    <mergeCell ref="AG27:AG30"/>
-    <mergeCell ref="AE15:AE17"/>
     <mergeCell ref="AE11:AE14"/>
     <mergeCell ref="AE21:AE23"/>
     <mergeCell ref="AE24:AE26"/>
     <mergeCell ref="AE27:AE30"/>
+    <mergeCell ref="AH21:AJ30"/>
+    <mergeCell ref="AG27:AG30"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:K14"/>
@@ -7039,8 +7126,209 @@
     <mergeCell ref="AE8:AE10"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AE15:AE17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F505FC1B-3D61-4EA2-A68D-140E4BBAF5E3}">
+  <dimension ref="B2:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="86"/>
+      <c r="C3" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="86"/>
+      <c r="C4" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="88"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="86"/>
+      <c r="C5" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+    </row>
+    <row r="6" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="86"/>
+      <c r="C6" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="86"/>
+      <c r="C7" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="88"/>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="86"/>
+      <c r="C8" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+    </row>
+    <row r="9" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="86"/>
+      <c r="C9" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+    </row>
+    <row r="11" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>